--- a/academycity/data/avic/datasets/excel/eli/2007.xlsx
+++ b/academycity/data/avic/datasets/excel/eli/2007.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="GDP" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="209">
   <si>
     <t xml:space="preserve">Country Name</t>
   </si>
@@ -655,9 +655,6 @@
   <si>
     <t xml:space="preserve">Primary-3</t>
   </si>
-  <si>
-    <t xml:space="preserve">School enrollment, primary (% gross)</t>
-  </si>
 </sst>
 </file>
 
@@ -707,12 +704,6 @@
       <charset val="177"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -732,6 +723,12 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -759,18 +756,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -781,7 +772,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
-        <bgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
@@ -824,7 +815,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -848,15 +839,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -865,7 +849,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -873,59 +857,59 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -937,35 +921,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -973,11 +957,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -985,31 +969,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1017,7 +1001,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1025,7 +1009,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1033,48 +1017,42 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="173" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="174" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Neutral 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 2" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1113,7 +1091,7 @@
       <rgbColor rgb="FF00B0F0"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFEB9C"/>
+      <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -17764,8 +17742,8 @@
   </sheetPr>
   <dimension ref="A1:E163"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20539,7 +20517,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.53"/>
   </cols>
   <sheetData>
@@ -22963,7 +22941,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="28" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="12"/>
@@ -23335,7 +23313,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="51" t="s">
+      <c r="A50" s="28" t="s">
         <v>66</v>
       </c>
       <c r="B50" s="12"/>
@@ -24859,7 +24837,7 @@
   <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E58" activeCellId="0" sqref="E58"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26681,8 +26659,8 @@
   </sheetPr>
   <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26706,9 +26684,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="48" t="s">
-        <v>209</v>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B2" s="35" t="n">
         <v>91.1888186111111</v>
@@ -26720,7 +26698,10 @@
         <v>92.0932488312592</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B3" s="35" t="n">
         <v>99.6372978947368</v>
       </c>
@@ -26856,7 +26837,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="32"/>
@@ -26974,7 +26955,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="28" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="12"/>
@@ -27364,7 +27345,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="51" t="s">
+      <c r="A50" s="28" t="s">
         <v>66</v>
       </c>
       <c r="B50" s="12"/>

--- a/academycity/data/avic/datasets/excel/eli/2007.xlsx
+++ b/academycity/data/avic/datasets/excel/eli/2007.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="GDP" sheetId="1" state="visible" r:id="rId2"/>
@@ -24836,8 +24836,8 @@
   </sheetPr>
   <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24859,26 +24859,26 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>38.9200228855413</v>
+        <v>12.2567448854654</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>39.3819913937848</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11.9614070918405</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>12.2567448854654</v>
+        <v>38.9200228855413</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>11.9614070918405</v>
+        <v>39.3819913937848</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26659,8 +26659,8 @@
   </sheetPr>
   <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
